--- a/data/trans_orig/P70D_R_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>12087</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5488</v>
+        <v>5956</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22815</v>
+        <v>23846</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03234686837173849</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01468779113315892</v>
+        <v>0.0159383734591422</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06105783854914235</v>
+        <v>0.06381782336013558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -762,19 +762,19 @@
         <v>13273</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8365</v>
+        <v>8419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21298</v>
+        <v>21609</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03986187005046012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02512247764024734</v>
+        <v>0.02528378034670109</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06396614711449923</v>
+        <v>0.06489760645991291</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -783,19 +783,19 @@
         <v>25359</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16630</v>
+        <v>16648</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37327</v>
+        <v>38384</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03588796943286997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0235344054642627</v>
+        <v>0.02355980925202925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05282467135226367</v>
+        <v>0.05431964914108989</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>361573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>350845</v>
+        <v>349814</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>368172</v>
+        <v>367704</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9676531316282616</v>
+        <v>0.9676531316282614</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9389421614508576</v>
+        <v>0.9361821766398645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9853122088668411</v>
+        <v>0.9840616265408578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>425</v>
@@ -833,19 +833,19 @@
         <v>319691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>311666</v>
+        <v>311355</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>324599</v>
+        <v>324545</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9601381299495398</v>
+        <v>0.96013812994954</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9360338528855008</v>
+        <v>0.935102393540087</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9748775223597526</v>
+        <v>0.9747162196532989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>745</v>
@@ -854,19 +854,19 @@
         <v>681265</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>669297</v>
+        <v>668240</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>689994</v>
+        <v>689976</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9641120305671301</v>
+        <v>0.96411203056713</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9471753286477367</v>
+        <v>0.9456803508589101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9764655945357373</v>
+        <v>0.9764401907479707</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>9995</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4675</v>
+        <v>4269</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20013</v>
+        <v>19059</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03137682949975209</v>
+        <v>0.0313768294997521</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01467647741195205</v>
+        <v>0.01340120994245163</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06282965160817043</v>
+        <v>0.05983331176812291</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -979,19 +979,19 @@
         <v>8542</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4408</v>
+        <v>4467</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14615</v>
+        <v>14857</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03150344240787274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01625669561563755</v>
+        <v>0.01647379207735262</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05389954922609016</v>
+        <v>0.05479261665552122</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1000,19 +1000,19 @@
         <v>18537</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11681</v>
+        <v>11714</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29407</v>
+        <v>29622</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03143504874152638</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01980934371679788</v>
+        <v>0.01986431543172585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04986917793521323</v>
+        <v>0.05023367570263148</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>308537</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>298519</v>
+        <v>299473</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>313857</v>
+        <v>314263</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9686231705002479</v>
+        <v>0.968623170500248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9371703483918299</v>
+        <v>0.940166688231877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.985323522588048</v>
+        <v>0.9865987900575485</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -1050,19 +1050,19 @@
         <v>262604</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>256531</v>
+        <v>256289</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>266738</v>
+        <v>266679</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9684965575921273</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9461004507739099</v>
+        <v>0.9452073833444774</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9837433043843627</v>
+        <v>0.9835262079226471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>612</v>
@@ -1071,19 +1071,19 @@
         <v>571142</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>560272</v>
+        <v>560057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>577998</v>
+        <v>577965</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9685649512584736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9501308220647867</v>
+        <v>0.9497663242973685</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9801906562832021</v>
+        <v>0.9801356845682742</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>6655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2823</v>
+        <v>2429</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13727</v>
+        <v>13244</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02480327595936733</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01052356236153324</v>
+        <v>0.009052350174082659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05116228145690836</v>
+        <v>0.04936304355108984</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1196,19 +1196,19 @@
         <v>5661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2632</v>
+        <v>2611</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10315</v>
+        <v>10342</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06929518744143129</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03221806047802288</v>
+        <v>0.03195801714344134</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1262658402978155</v>
+        <v>0.1266033243663661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1217,19 +1217,19 @@
         <v>12315</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6973</v>
+        <v>6884</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19757</v>
+        <v>20462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0351882411717369</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01992279692319565</v>
+        <v>0.01966826154719204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05645048188776187</v>
+        <v>0.05846533783016884</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>261640</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>254568</v>
+        <v>255051</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265472</v>
+        <v>265866</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9751967240406327</v>
+        <v>0.9751967240406328</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9488377185430918</v>
+        <v>0.9506369564489101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9894764376384668</v>
+        <v>0.9909476498259172</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>105</v>
@@ -1267,19 +1267,19 @@
         <v>76030</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71376</v>
+        <v>71349</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>79059</v>
+        <v>79080</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9307048125585686</v>
+        <v>0.9307048125585687</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8737341597021846</v>
+        <v>0.8733966756336338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9677819395219772</v>
+        <v>0.9680419828565586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>335</v>
@@ -1288,19 +1288,19 @@
         <v>337671</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>330229</v>
+        <v>329524</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>343013</v>
+        <v>343102</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.964811758828263</v>
+        <v>0.9648117588282632</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9435495181122381</v>
+        <v>0.9415346621698315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9800772030768043</v>
+        <v>0.9803317384528082</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>38238</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27410</v>
+        <v>28353</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51588</v>
+        <v>53877</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06212907260350513</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04453565610725632</v>
+        <v>0.04606855083646332</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08381934095255972</v>
+        <v>0.08753961335633065</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1413,19 +1413,19 @@
         <v>25611</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17622</v>
+        <v>17586</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37646</v>
+        <v>35740</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05410413187563255</v>
+        <v>0.05410413187563256</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03722544771214755</v>
+        <v>0.03715122893874137</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07952768592817036</v>
+        <v>0.07550127851133918</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1434,19 +1434,19 @@
         <v>63850</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50972</v>
+        <v>50063</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81090</v>
+        <v>82658</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0586402145871292</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04681330334297877</v>
+        <v>0.04597868183525084</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07447442937439305</v>
+        <v>0.07591416802908636</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>577224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>563874</v>
+        <v>561585</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>588052</v>
+        <v>587109</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9378709273964948</v>
+        <v>0.9378709273964947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9161806590474404</v>
+        <v>0.912460386643669</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9554643438927434</v>
+        <v>0.9539314491635366</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>591</v>
@@ -1484,19 +1484,19 @@
         <v>447762</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>435727</v>
+        <v>437633</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>455751</v>
+        <v>455787</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9458958681243674</v>
+        <v>0.9458958681243675</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9204723140718298</v>
+        <v>0.9244987214886609</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9627745522878526</v>
+        <v>0.9628487710612585</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1081</v>
@@ -1505,19 +1505,19 @@
         <v>1024986</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1007746</v>
+        <v>1006178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1037864</v>
+        <v>1038773</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9413597854128708</v>
+        <v>0.9413597854128707</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9255255706256067</v>
+        <v>0.9240858319709133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9531866966570212</v>
+        <v>0.954021318164749</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>13912</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7694</v>
+        <v>7628</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23826</v>
+        <v>22372</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04544710844870617</v>
+        <v>0.04544710844870616</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.025132907169085</v>
+        <v>0.02491759760566621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07783247771760195</v>
+        <v>0.07308215146717709</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -1630,19 +1630,19 @@
         <v>31912</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23878</v>
+        <v>23391</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43646</v>
+        <v>43021</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1039629865553251</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07779206964483157</v>
+        <v>0.0762049825085741</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1421915067194411</v>
+        <v>0.1401569598512418</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -1651,19 +1651,19 @@
         <v>45824</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35399</v>
+        <v>34310</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59295</v>
+        <v>57752</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.074744644129682</v>
+        <v>0.07474464412968201</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05773993199837871</v>
+        <v>0.05596381220544784</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09671682054159414</v>
+        <v>0.09419994771406592</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>292211</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>282297</v>
+        <v>283751</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>298429</v>
+        <v>298495</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9545528915512939</v>
+        <v>0.9545528915512937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9221675222823978</v>
+        <v>0.9269178485328228</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9748670928309153</v>
+        <v>0.9750824023943336</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>378</v>
@@ -1701,19 +1701,19 @@
         <v>275040</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>263306</v>
+        <v>263931</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>283074</v>
+        <v>283561</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8960370134446748</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.857808493280559</v>
+        <v>0.8598430401487582</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9222079303551682</v>
+        <v>0.9237950174914258</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>615</v>
@@ -1722,19 +1722,19 @@
         <v>567251</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>553780</v>
+        <v>555323</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>577676</v>
+        <v>578765</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9252553558703178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9032831794584059</v>
+        <v>0.9058000522859341</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9422600680016212</v>
+        <v>0.9440361877945522</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>80886</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>64572</v>
+        <v>64208</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103059</v>
+        <v>103230</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.0429772840292388</v>
+        <v>0.04297728402923881</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0343087869482707</v>
+        <v>0.0341157543833748</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05475803341906951</v>
+        <v>0.05484916713933806</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -1847,19 +1847,19 @@
         <v>84999</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71177</v>
+        <v>71502</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104519</v>
+        <v>102929</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05797487317644562</v>
+        <v>0.05797487317644563</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.048547647762497</v>
+        <v>0.04876924173898409</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07128934703021909</v>
+        <v>0.07020446793678357</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>191</v>
@@ -1868,19 +1868,19 @@
         <v>165885</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>143092</v>
+        <v>144321</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>194547</v>
+        <v>193323</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04954450887528417</v>
+        <v>0.04954450887528415</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04273704237865776</v>
+        <v>0.04310394888991193</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05810493404184083</v>
+        <v>0.05773934046827653</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>1801186</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1779013</v>
+        <v>1778842</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1817500</v>
+        <v>1817864</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9570227159707614</v>
+        <v>0.9570227159707613</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9452419665809306</v>
+        <v>0.945150832860662</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9656912130517291</v>
+        <v>0.9658842456166253</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1846</v>
@@ -1918,19 +1918,19 @@
         <v>1381128</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1361608</v>
+        <v>1363198</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1394950</v>
+        <v>1394625</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9420251268235542</v>
+        <v>0.9420251268235544</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9287106529697805</v>
+        <v>0.9297955320632164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9514523522375029</v>
+        <v>0.9512307582610157</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3388</v>
@@ -1939,19 +1939,19 @@
         <v>3182314</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3153652</v>
+        <v>3154876</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3205107</v>
+        <v>3203878</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9504554911247159</v>
+        <v>0.9504554911247157</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9418950659581593</v>
+        <v>0.9422606595317232</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9572629576213424</v>
+        <v>0.956896051110088</v>
       </c>
     </row>
     <row r="21">
